--- a/Документация/WebTours Профиль нагрузки (простой)_Дорохина.xlsx
+++ b/Документация/WebTours Профиль нагрузки (простой)_Дорохина.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandradorohina/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandradorohina/Desktop/Тестирование/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F29C053-BB5A-D949-AA99-74C39D26303C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AB3331-4A37-C146-807B-4C34C1819EF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,10 +112,10 @@
     <t>Всего Vus</t>
   </si>
   <si>
-    <t>Расчётная интенсивность операций за 1 час одним Vus</t>
-  </si>
-  <si>
     <t>Соотвествие расчётной интенсивности статистике</t>
+  </si>
+  <si>
+    <t>Расчётная интенсивность операций за 1 час всеми Vus</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1116,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1153,10 +1153,10 @@
         <v>9</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1167,9 +1167,10 @@
         <v>289</v>
       </c>
       <c r="C2" s="17">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="14">
+        <f>60/C2</f>
         <v>2.4</v>
       </c>
       <c r="E2" s="11">
@@ -1183,11 +1184,12 @@
         <v>2</v>
       </c>
       <c r="H2" s="5">
-        <v>144</v>
+        <f>D2*E2*G2</f>
+        <v>288</v>
       </c>
       <c r="I2" s="9">
         <f>H2/B2-1</f>
-        <v>-0.5017301038062284</v>
+        <v>-3.4602076124568004E-3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1201,6 +1203,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="14">
+        <f>60/C3</f>
         <v>2.5</v>
       </c>
       <c r="E3" s="11">
@@ -1214,11 +1217,12 @@
         <v>3</v>
       </c>
       <c r="H3" s="5">
-        <v>152</v>
+        <f>D3*E3*G3</f>
+        <v>450</v>
       </c>
       <c r="I3" s="9">
         <f t="shared" ref="I3:I6" si="1">H3/B3-1</f>
-        <v>-0.66812227074235808</v>
+        <v>-1.7467248908296984E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1229,10 +1233,11 @@
         <v>189</v>
       </c>
       <c r="C4" s="18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="14">
-        <v>3.15</v>
+        <f>60/C4</f>
+        <v>3.1578947368421053</v>
       </c>
       <c r="E4" s="11">
         <v>60</v>
@@ -1245,11 +1250,12 @@
         <v>1</v>
       </c>
       <c r="H4" s="5">
-        <v>189</v>
+        <f>D4*E4*G4</f>
+        <v>189.47368421052633</v>
       </c>
       <c r="I4" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5062656641605674E-3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1260,10 +1266,11 @@
         <v>345</v>
       </c>
       <c r="C5" s="17">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" s="14">
-        <v>1.9</v>
+        <f>60/C5</f>
+        <v>1.875</v>
       </c>
       <c r="E5" s="11">
         <v>60</v>
@@ -1276,11 +1283,12 @@
         <v>3</v>
       </c>
       <c r="H5" s="5">
-        <v>115</v>
+        <f>D5*E5*G5</f>
+        <v>337.5</v>
       </c>
       <c r="I5" s="9">
         <f t="shared" si="1"/>
-        <v>-0.66666666666666674</v>
+        <v>-2.1739130434782594E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1291,10 +1299,11 @@
         <v>234</v>
       </c>
       <c r="C6" s="17">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6" s="14">
-        <v>3.9</v>
+        <f>60/C6</f>
+        <v>4</v>
       </c>
       <c r="E6" s="11">
         <v>60</v>
@@ -1307,11 +1316,12 @@
         <v>1</v>
       </c>
       <c r="H6" s="5">
-        <v>234</v>
+        <f>D6*E6*G6</f>
+        <v>240</v>
       </c>
       <c r="I6" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.564102564102555E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
